--- a/Anreg_Data Harapan Hidup_Retno Sari_M0401241010.xlsx
+++ b/Anreg_Data Harapan Hidup_Retno Sari_M0401241010.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\retno\Documents\MATERI KULIAH\Semester 4\ANALISIS REGRESI\DATA PROJEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35F2761E-49F9-45BD-B6B4-B56F86F430B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A999B30F-F42B-4531-AE6E-566F43FA34C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{E28EBDF3-20E0-42C0-BEF8-7B277D9CC04F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="209">
   <si>
     <t>1. GDP per Kapita</t>
   </si>
@@ -818,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,6 +847,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1283,31 +1286,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE99B62-C9DA-415D-91AE-1B3C95717267}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="109" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomRight" activeCell="Q133" sqref="Q133:S133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.54296875" customWidth="1"/>
-    <col min="6" max="6" width="15.6328125" customWidth="1"/>
-    <col min="7" max="7" width="16.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="15.1796875" customWidth="1"/>
-    <col min="12" max="12" width="34" style="8" customWidth="1"/>
-    <col min="13" max="13" width="27.6328125" customWidth="1"/>
+    <col min="3" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" customWidth="1"/>
+    <col min="8" max="8" width="16.36328125" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" customWidth="1"/>
+    <col min="13" max="13" width="34" style="8" customWidth="1"/>
+    <col min="14" max="14" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="5" t="s">
         <v>10</v>
@@ -1315,35 +1318,38 @@
       <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1353,35 +1359,38 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
+        <v>66.034599999999998</v>
+      </c>
+      <c r="E2">
         <v>1983.8126</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2.5147900000000001</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>23.088170000000002</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>82.98921</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>53.090940000000003</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>5.0364399999999998</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>17.594190000000001</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>23.3</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1391,35 +1400,38 @@
       <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
+        <v>79.601900000000001</v>
+      </c>
+      <c r="E3">
         <v>17991.016</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>10.175311000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6.1936799999999996</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>96.974999999999994</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>99.299490000000006</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.83158933999999995</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>26.583349999999999</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>22.4</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1429,35 +1441,38 @@
       <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
+        <v>76.260999999999996</v>
+      </c>
+      <c r="E4">
         <v>15159.324000000001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7.4163870000000003</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3.62304</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>97.105125000000001</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>85.867040000000003</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1.9743147999999999</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>24.24859</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>21</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="M4" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1467,35 +1482,38 @@
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
+        <v>84.040599999999998</v>
+      </c>
+      <c r="E5">
         <v>64631.296999999999</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>11.61</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>7.5367899999999999</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
         <v>0.24773584000000001</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>20.47006</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>31.8</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="M5" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1505,35 +1523,38 @@
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
+        <v>64.617000000000004</v>
+      </c>
+      <c r="E6">
         <v>7250.4030000000002</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>5.9561729999999997</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>2.9273799999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>78.282669999999996</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>66.476579999999998</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3.82714</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>10.535019999999999</v>
       </c>
-      <c r="K6" s="11">
+      <c r="L6" s="11">
         <v>15.83</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="M6" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1543,35 +1564,38 @@
       <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
+        <v>77.3947</v>
+      </c>
+      <c r="E7">
         <v>27104.98</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>11.184582000000001</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>9.8630499999999994</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>99.041374000000005</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>94.865799999999993</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.81754959999999999</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>36.025640000000003</v>
       </c>
-      <c r="K7" s="3">
+      <c r="L7" s="3">
         <v>24.5</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1581,35 +1605,38 @@
       <c r="C8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
+        <v>75.682699999999997</v>
+      </c>
+      <c r="E8">
         <v>19402.752</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>11.344977999999999</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>9.9621300000000002</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>99.922200000000004</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>93.567449999999994</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.88751049999999998</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>27.866209999999999</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25.5</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="M8" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1619,35 +1646,38 @@
       <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
+        <v>83.922799999999995</v>
+      </c>
+      <c r="E9">
         <v>60461.156000000003</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>12.87</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>9.9268800000000006</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>99.969679999999997</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.31361938</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>31.824149999999999</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>13.6</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1657,35 +1687,38 @@
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
+        <v>81.9559</v>
+      </c>
+      <c r="E10">
         <v>64394.09</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>12.361465000000001</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>11.15729</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>100</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>99.972244000000003</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.26263183000000001</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>17.04036</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>26.4</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="M10" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1695,35 +1728,38 @@
       <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
+        <v>74.428600000000003</v>
+      </c>
+      <c r="E11">
         <v>21310.738000000001</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>11.07</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3.9784099999999998</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>98.275986000000003</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>97.948220000000006</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>1.3325222000000001</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>27.504110000000001</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>24</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="M11" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1733,35 +1769,38 @@
       <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
+        <v>74.5518</v>
+      </c>
+      <c r="E12">
         <v>35221.31</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>12.814418999999999</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>7.21692</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>98.945260000000005</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>94.935599999999994</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1.1365536000000001</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>47.610469999999999</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10.6</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1771,35 +1810,38 @@
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
+        <v>81.283500000000004</v>
+      </c>
+      <c r="E13">
         <v>57819.906000000003</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>11.13</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3.83745</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>99.919899999999998</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>100</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.71515810000000002</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>37.187390000000001</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>14.9</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="M13" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1809,35 +1851,38 @@
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
+        <v>74.672300000000007</v>
+      </c>
+      <c r="E14">
         <v>8242.3979999999992</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>6.79</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>2.39039</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>99.448139999999995</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>65.630420000000001</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>2.4366615</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>5.2903500000000001</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>34.700000000000003</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="M14" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1847,35 +1892,38 @@
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
+        <v>76.178200000000004</v>
+      </c>
+      <c r="E15">
         <v>19224.463</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>9.9283570000000001</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>6.2938900000000002</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>99.432000000000002</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>98.092460000000003</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.93004659999999995</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>38.22936</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>8.5</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="M15" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1885,35 +1933,38 @@
       <c r="C16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
+        <v>74.433899999999994</v>
+      </c>
+      <c r="E16">
         <v>27782.437999999998</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>12.335373000000001</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6.6592000000000002</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>99.875590000000003</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>99.719939999999994</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.18836947000000001</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>26.551269999999999</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>30.5</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1923,35 +1974,38 @@
       <c r="C17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
+        <v>82.114999999999995</v>
+      </c>
+      <c r="E17">
         <v>62920.644999999997</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>12.689651</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>10.76192</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>100</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>99.48621</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.30426034000000002</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>22.00038</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>23.4</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="M17" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1961,35 +2015,38 @@
       <c r="C18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
+        <v>73.565600000000003</v>
+      </c>
+      <c r="E18">
         <v>12455.296</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>8.7622900000000001</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>4.2317400000000003</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>96.028019999999998</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>84.249724999999998</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.0844069000000001</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>41.910919999999997</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>8.5</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1999,35 +2056,38 @@
       <c r="C19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
+        <v>60.773800000000001</v>
+      </c>
+      <c r="E19">
         <v>3721.2125999999998</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3.1941999999999999</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2.6798099999999998</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>76.715996000000004</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>21.546029999999998</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>4.6421504000000002</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>9.8947000000000003</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>6.9</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="M19" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2037,35 +2097,38 @@
       <c r="C20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
+        <v>68.581400000000002</v>
+      </c>
+      <c r="E20">
         <v>9843.9699999999993</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>10.021223000000001</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>8.4314300000000006</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>93.097885000000005</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>70.433539999999994</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>2.0037693999999999</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>27.80303</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>12.7</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="M20" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2075,35 +2138,38 @@
       <c r="C21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
+        <v>77.850399999999993</v>
+      </c>
+      <c r="E21">
         <v>19803.846000000001</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>10.97</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>8.71645</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>99.952060000000003</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>86.973849999999999</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.53459184999999998</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>25.467009999999998</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>35</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="M21" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2113,35 +2179,38 @@
       <c r="C22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
+        <v>69.1631</v>
+      </c>
+      <c r="E22">
         <v>18932.48</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>10.478</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>5.7283900000000001</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>96.089389999999995</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>71.994140000000002</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>3.8248791999999998</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>17.458480000000002</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="M22" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2151,35 +2220,38 @@
       <c r="C23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
+        <v>75.848200000000006</v>
+      </c>
+      <c r="E23">
         <v>19079.812000000002</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>8.4253719999999994</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>9.1427700000000005</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>99.898055999999997</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>91.712845000000002</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>1.2461936</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>28.762920000000001</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>12.8</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="M23" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2189,35 +2261,38 @@
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
+        <v>75.326599999999999</v>
+      </c>
+      <c r="E24">
         <v>76616.7</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>9.282</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>1.81768</v>
-      </c>
-      <c r="G24">
-        <v>100</v>
       </c>
       <c r="H24">
         <v>100</v>
       </c>
       <c r="I24">
+        <v>100</v>
+      </c>
+      <c r="J24">
         <v>0.82454305999999999</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>32.378019999999999</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>16.2</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="M24" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2227,35 +2302,38 @@
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
+        <v>75.636300000000006</v>
+      </c>
+      <c r="E25">
         <v>33139.938000000002</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>11.454530999999999</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>7.6635799999999996</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>99.201740000000001</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>86.06626</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.49956107</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>24.247859999999999</v>
       </c>
-      <c r="K25" s="3">
+      <c r="L25" s="3">
         <v>39</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="M25" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2265,35 +2343,38 @@
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
+        <v>61.091999999999999</v>
+      </c>
+      <c r="E26">
         <v>2482.0722999999998</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2.2665500000000001</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>6.77182</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>81.173429999999996</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>30.915075000000002</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>4.4803785999999999</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>6.1007699999999998</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14.3</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="M26" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2303,35 +2384,38 @@
       <c r="C27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
+        <v>63.6511</v>
+      </c>
+      <c r="E27">
         <v>828.58294999999998</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>3.4739355999999999</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>8.3952299999999997</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>86.277270000000001</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>44.645609999999998</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>3.1460824000000001</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>4.5345000000000004</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11.8</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="M27" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2341,35 +2425,38 @@
       <c r="C28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
+        <v>70.667500000000004</v>
+      </c>
+      <c r="E28">
         <v>6695.2920000000004</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>5.1970999999999998</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4.7108999999999996</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>90.617744000000002</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>80.356899999999996</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>2.0316860000000001</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>4.3864599999999996</v>
       </c>
-      <c r="K28" s="3">
+      <c r="L28" s="3">
         <v>21.1</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="M28" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2379,35 +2466,38 @@
       <c r="C29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
+        <v>63.699599999999997</v>
+      </c>
+      <c r="E29">
         <v>4870.5709999999999</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>6.5741806</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>4.4783600000000003</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>85.484639999999999</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>46.622622999999997</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>4.1249900000000004</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>13.350759999999999</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>7.3</v>
       </c>
-      <c r="L29" s="8" t="s">
+      <c r="M29" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2417,35 +2507,38 @@
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
+        <v>82.630200000000002</v>
+      </c>
+      <c r="E30">
         <v>57517.440000000002</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>13.87</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>11.23433</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>98.290503999999999</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>98.588134999999994</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.44341673999999998</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>27.31915</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>13</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="M30" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2455,35 +2548,38 @@
       <c r="C31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
+        <v>81.166700000000006</v>
+      </c>
+      <c r="E31">
         <v>29563.678</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>11.291054000000001</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>10.061730000000001</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>98.989019999999996</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>100</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.62005639999999995</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>39.522880000000001</v>
       </c>
-      <c r="K31" s="3">
+      <c r="L31" s="3">
         <v>29.2</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="M31" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2493,35 +2589,38 @@
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
+        <v>77.9529</v>
+      </c>
+      <c r="E32">
         <v>22687.076000000001</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>8.0361809999999991</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>5.3694899999999999</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>96.287440000000004</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>97.241164999999995</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.44513127000000002</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>8.2112599999999993</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>25.6</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="M32" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2531,35 +2630,38 @@
       <c r="C33" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
+        <v>77.724599999999995</v>
+      </c>
+      <c r="E33">
         <v>18382.998</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>9.0315820000000002</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>7.5736100000000004</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>97.128879999999995</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>95.712800000000001</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>1.0935143000000001</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>23.85454</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8.5</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="M33" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2569,35 +2671,38 @@
       <c r="C34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
+        <v>78.580299999999994</v>
+      </c>
+      <c r="E34">
         <v>41135.086000000003</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>12.095121000000001</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>7.2154499999999997</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>99.902860000000004</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>98.554599999999994</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.38625556</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>35.651739999999997</v>
       </c>
-      <c r="K34" s="3">
+      <c r="L34" s="3">
         <v>36.9</v>
       </c>
-      <c r="L34" s="8" t="s">
+      <c r="M34" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2607,35 +2712,38 @@
       <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
+        <v>78.085499999999996</v>
+      </c>
+      <c r="E35">
         <v>23700.056</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>10.631489</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>11.78683</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>97.702789999999993</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>94.122079999999997</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.65885746000000001</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>23.539249999999999</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="M35" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2645,35 +2753,38 @@
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
+        <v>81.647999999999996</v>
+      </c>
+      <c r="E36">
         <v>52190.875</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>12.557372000000001</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>8.8706099999999992</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>99.721080000000001</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>99.476879999999994</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.28629258000000002</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>25.109929999999999</v>
       </c>
-      <c r="K36" s="3">
+      <c r="L36" s="3">
         <v>35.1</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="M36" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2683,35 +2794,38 @@
       <c r="C37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
+        <v>79.834100000000007</v>
+      </c>
+      <c r="E37">
         <v>47509.523000000001</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>12.963182</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>8.7990499999999994</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>99.923869999999994</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <v>99.070809999999994</v>
       </c>
-      <c r="I37">
+      <c r="J37">
         <v>0.20731346</v>
       </c>
-      <c r="J37">
+      <c r="K37">
         <v>31.29533</v>
       </c>
-      <c r="K37" s="3">
+      <c r="L37" s="3">
         <v>30.7</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="M37" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2721,35 +2835,38 @@
       <c r="C38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
+        <v>81.9328</v>
+      </c>
+      <c r="E38">
         <v>71454.52</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>13.027321000000001</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>9.4758600000000008</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>100</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <v>99.597219999999993</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.30220829999999999</v>
       </c>
-      <c r="J38">
+      <c r="K38">
         <v>14.30341</v>
       </c>
-      <c r="K38" s="3">
+      <c r="L38" s="3">
         <v>17.5</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="M38" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2759,35 +2876,38 @@
       <c r="C39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
+        <v>77.392399999999995</v>
+      </c>
+      <c r="E39">
         <v>14343.019</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>8.9700000000000006</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>7.5345700000000004</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>95.69211</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <v>90.555695</v>
       </c>
-      <c r="I39">
+      <c r="J39">
         <v>1.1094198</v>
       </c>
-      <c r="J39">
+      <c r="K39">
         <v>26.983630000000002</v>
       </c>
-      <c r="K39" s="3">
+      <c r="L39" s="3">
         <v>11.3</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="M39" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2797,35 +2917,38 @@
       <c r="C40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
+        <v>71.633499999999998</v>
+      </c>
+      <c r="E40">
         <v>16691.386999999999</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>10.13612</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>4.7043799999999996</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>98.115470000000002</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <v>96.865746000000001</v>
       </c>
-      <c r="I40">
+      <c r="J40">
         <v>1.6145948000000001</v>
       </c>
-      <c r="J40">
+      <c r="K40">
         <v>42.989240000000002</v>
       </c>
-      <c r="K40" s="3">
+      <c r="L40" s="3">
         <v>24.3</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="M40" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2835,35 +2958,38 @@
       <c r="C41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
+        <v>72.099299999999999</v>
+      </c>
+      <c r="E41">
         <v>11424.645500000001</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>7.3</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>9.8407999999999998</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>98.641975000000002</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <v>87.791970000000006</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>0.91705537000000004</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>29.89273</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7.9</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="M41" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2873,35 +2999,38 @@
       <c r="C42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
+        <v>79.153499999999994</v>
+      </c>
+      <c r="E42">
         <v>41706.519999999997</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>13.562165999999999</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>6.9870099999999997</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>100</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <v>99.022040000000004</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>0.15979615999999999</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>26.670950000000001</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>29.7</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="M42" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2911,35 +3040,38 @@
       <c r="C43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
+        <v>67.314999999999998</v>
+      </c>
+      <c r="E43">
         <v>2757.9591999999998</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>2.4025397000000002</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>2.8527499999999999</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>81.083920000000006</v>
       </c>
-      <c r="H43">
+      <c r="I43">
         <v>10.016807999999999</v>
       </c>
-      <c r="I43">
+      <c r="J43">
         <v>3.5741610000000001</v>
       </c>
-      <c r="J43">
+      <c r="K43">
         <v>2.40611</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="M43" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2949,35 +3081,38 @@
       <c r="C44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="3">
+        <v>81.910200000000003</v>
+      </c>
+      <c r="E44">
         <v>56246.44</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>12.979626</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>9.6589200000000002</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>100</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>99.447950000000006</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>0.18189011999999999</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>23.701090000000001</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>21.6</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="M44" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2987,35 +3122,38 @@
       <c r="C45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="3">
+        <v>83.325299999999999</v>
+      </c>
+      <c r="E45">
         <v>54017.875</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>11.765668</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>11.8819</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>100</v>
       </c>
-      <c r="H45">
+      <c r="I45">
         <v>98.645189999999999</v>
       </c>
-      <c r="I45">
+      <c r="J45">
         <v>0.34116600000000002</v>
       </c>
-      <c r="J45">
+      <c r="K45">
         <v>10.924810000000001</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>33.4</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="M45" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -3025,35 +3163,38 @@
       <c r="C46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
+        <v>68.336699999999993</v>
+      </c>
+      <c r="E46">
         <v>18702.690999999999</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>9.6859999999999999</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>2.8559199999999998</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>94.274799999999999</v>
       </c>
-      <c r="H46">
+      <c r="I46">
         <v>57.301631999999998</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>2.6495975999999999</v>
       </c>
-      <c r="J46">
+      <c r="K46">
         <v>20.001619999999999</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>11.2</v>
       </c>
-      <c r="L46" s="8" t="s">
+      <c r="M46" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -3063,35 +3204,38 @@
       <c r="C47" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="3">
+        <v>74.496499999999997</v>
+      </c>
+      <c r="E47">
         <v>22590.53</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>12.7</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>7.2557</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>98.176699999999997</v>
       </c>
-      <c r="H47">
+      <c r="I47">
         <v>90.048990000000003</v>
       </c>
-      <c r="I47">
+      <c r="J47">
         <v>0.79514485999999995</v>
       </c>
-      <c r="J47">
+      <c r="K47">
         <v>38.936360000000001</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>31.7</v>
       </c>
-      <c r="L47" s="8" t="s">
+      <c r="M47" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -3101,35 +3245,38 @@
       <c r="C48" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
+        <v>81.377700000000004</v>
+      </c>
+      <c r="E48">
         <v>62686.54</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>14.296371000000001</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>12.605130000000001</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>100</v>
       </c>
-      <c r="H48">
+      <c r="I48">
         <v>99.226555000000005</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>0.30717576000000002</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>24.161919999999999</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22</v>
       </c>
-      <c r="L48" s="8" t="s">
+      <c r="M48" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -3139,35 +3286,38 @@
       <c r="C49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
+        <v>65.497900000000001</v>
+      </c>
+      <c r="E49">
         <v>6808.5375999999997</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>7.1072100000000002</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>3.69936</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>93.724440000000001</v>
       </c>
-      <c r="H49">
+      <c r="I49">
         <v>30.304846000000001</v>
       </c>
-      <c r="I49">
+      <c r="J49">
         <v>2.8172605000000002</v>
       </c>
-      <c r="J49">
+      <c r="K49">
         <v>12.108739999999999</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3.5</v>
       </c>
-      <c r="L49" s="8" t="s">
+      <c r="M49" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -3177,35 +3327,38 @@
       <c r="C50" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
+        <v>81.856800000000007</v>
+      </c>
+      <c r="E50">
         <v>36854.504000000001</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>11.553857000000001</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>8.4998400000000007</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>100</v>
       </c>
-      <c r="H50">
+      <c r="I50">
         <v>99.003944000000004</v>
       </c>
-      <c r="I50">
+      <c r="J50">
         <v>0.31798756</v>
       </c>
-      <c r="J50">
+      <c r="K50">
         <v>33.682049999999997</v>
       </c>
-      <c r="K50" s="3">
+      <c r="L50" s="3">
         <v>33.5</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="M50" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -3215,35 +3368,38 @@
       <c r="C51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
+        <v>72.6023</v>
+      </c>
+      <c r="E51">
         <v>12384.948</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>5.8472999999999997</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>7.4409900000000002</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>94.530019999999993</v>
       </c>
-      <c r="H51">
+      <c r="I51">
         <v>70.604125999999994</v>
       </c>
-      <c r="I51">
+      <c r="J51">
         <v>1.7869858999999999</v>
       </c>
-      <c r="J51">
+      <c r="K51">
         <v>25.199549999999999</v>
       </c>
-      <c r="K51" s="4">
+      <c r="L51" s="4">
         <v>10.9</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="M51" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3253,35 +3409,38 @@
       <c r="C52" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
+        <v>64.084900000000005</v>
+      </c>
+      <c r="E52">
         <v>2619.4135999999999</v>
       </c>
-      <c r="E52">
+      <c r="F52">
         <v>3.673035</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>8.1135800000000007</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>76.584914999999995</v>
       </c>
-      <c r="H52">
+      <c r="I52">
         <v>28.831972</v>
       </c>
-      <c r="I52">
+      <c r="J52">
         <v>4.3055919999999999</v>
       </c>
-      <c r="J52">
+      <c r="K52">
         <v>10.077489999999999</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>9</v>
       </c>
-      <c r="L52" s="8" t="s">
+      <c r="M52" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3291,35 +3450,38 @@
       <c r="C53" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="3">
+        <v>64.935599999999994</v>
+      </c>
+      <c r="E53">
         <v>2956.4621999999999</v>
       </c>
-      <c r="E53">
+      <c r="F53">
         <v>5.3822999999999999</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>3.2084899999999998</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>83.711399999999998</v>
       </c>
-      <c r="H53">
+      <c r="I53">
         <v>29.018084000000002</v>
       </c>
-      <c r="I53">
+      <c r="J53">
         <v>4.0327789999999997</v>
       </c>
-      <c r="J53">
+      <c r="K53">
         <v>10.226929999999999</v>
       </c>
-      <c r="K53" s="3">
+      <c r="L53" s="3">
         <v>7.7</v>
       </c>
-      <c r="L53" s="8" t="s">
+      <c r="M53" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3329,35 +3491,38 @@
       <c r="C54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
+        <v>85.510599999999997</v>
+      </c>
+      <c r="E54">
         <v>64428.73</v>
       </c>
-      <c r="E54">
+      <c r="F54">
         <v>12.35</v>
       </c>
-      <c r="F54" s="10">
+      <c r="G54" s="10">
         <v>11.867900000000001</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>100</v>
       </c>
-      <c r="H54">
+      <c r="I54">
         <v>94.956010000000006</v>
       </c>
-      <c r="I54">
+      <c r="J54">
         <v>0.91866700000000001</v>
       </c>
-      <c r="J54">
+      <c r="K54">
         <v>26.499400000000001</v>
       </c>
-      <c r="K54" s="4">
+      <c r="L54" s="4">
         <v>9.4</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="M54" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3367,35 +3532,38 @@
       <c r="C55" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="3">
+        <v>77.024000000000001</v>
+      </c>
+      <c r="E55">
         <v>40368.589999999997</v>
       </c>
-      <c r="E55">
+      <c r="F55">
         <v>12.331621999999999</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>6.6898200000000001</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>100</v>
       </c>
-      <c r="H55">
+      <c r="I55">
         <v>97.976200000000006</v>
       </c>
-      <c r="I55">
+      <c r="J55">
         <v>0.31550929999999999</v>
       </c>
-      <c r="J55">
+      <c r="K55">
         <v>36.398980000000002</v>
       </c>
-      <c r="K55" s="3">
+      <c r="L55" s="3">
         <v>31.8</v>
       </c>
-      <c r="L55" s="8" t="s">
+      <c r="M55" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3405,35 +3573,38 @@
       <c r="C56" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="3">
+        <v>82.691100000000006</v>
+      </c>
+      <c r="E56">
         <v>67177.2</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>13.908925999999999</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>9.2859400000000001</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>100</v>
       </c>
-      <c r="H56">
+      <c r="I56">
         <v>98.778679999999994</v>
       </c>
-      <c r="I56">
+      <c r="J56">
         <v>0.19351818000000001</v>
       </c>
-      <c r="J56">
+      <c r="K56">
         <v>22.586580000000001</v>
       </c>
-      <c r="K56" s="3">
+      <c r="L56" s="3">
         <v>12</v>
       </c>
-      <c r="L56" s="8" t="s">
+      <c r="M56" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3443,35 +3614,38 @@
       <c r="C57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
+        <v>72.002600000000001</v>
+      </c>
+      <c r="E57">
         <v>9301.7559999999994</v>
       </c>
-      <c r="E57">
+      <c r="F57">
         <v>6.88</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>3.3058800000000002</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>97.544219999999996</v>
       </c>
-      <c r="H57">
+      <c r="I57">
         <v>80.697890000000001</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>2.4498441</v>
       </c>
-      <c r="J57">
+      <c r="K57">
         <v>7.2065099999999997</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>27.2</v>
       </c>
-      <c r="L57" s="8" t="s">
+      <c r="M57" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3481,35 +3655,38 @@
       <c r="C58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
+        <v>71.145700000000005</v>
+      </c>
+      <c r="E58">
         <v>13889.975</v>
       </c>
-      <c r="E58">
+      <c r="F58">
         <v>8.6972240000000003</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>2.6939500000000001</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>95.251720000000006</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>86.936329999999998</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>1.695433</v>
       </c>
-      <c r="J58">
+      <c r="K58">
         <v>11.50446</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>37.6</v>
       </c>
-      <c r="L58" s="8" t="s">
+      <c r="M58" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3519,35 +3696,38 @@
       <c r="C59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
+        <v>77.654499999999999</v>
+      </c>
+      <c r="E59">
         <v>15912.03</v>
       </c>
-      <c r="E59">
+      <c r="F59">
         <v>10.846712</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>5.3488899999999999</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>99.645195000000001</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>90.411990000000003</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>1.0655916000000001</v>
       </c>
-      <c r="J59">
+      <c r="K59">
         <v>25.264130000000002</v>
       </c>
-      <c r="K59" s="4">
+      <c r="L59" s="4">
         <v>13.6</v>
       </c>
-      <c r="L59" s="8" t="s">
+      <c r="M59" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3557,35 +3737,38 @@
       <c r="C60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="3">
+        <v>72.324200000000005</v>
+      </c>
+      <c r="E60">
         <v>13202.323</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>6.7800465000000001</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>4.2933199999999996</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>99.270210000000006</v>
       </c>
-      <c r="H60">
+      <c r="I60">
         <v>98.501710000000003</v>
       </c>
-      <c r="I60">
+      <c r="J60">
         <v>2.0824756999999998</v>
       </c>
-      <c r="J60">
+      <c r="K60">
         <v>37.364640000000001</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18.5</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="M60" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -3595,35 +3778,38 @@
       <c r="C61" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="3">
+        <v>82.411799999999999</v>
+      </c>
+      <c r="E61">
         <v>115505.336</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>11.724999</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>6.1197900000000001</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>97.081469999999996</v>
       </c>
-      <c r="H61">
+      <c r="I61">
         <v>89.742009999999993</v>
       </c>
-      <c r="I61">
+      <c r="J61">
         <v>0.33723667000000002</v>
       </c>
-      <c r="J61">
+      <c r="K61">
         <v>30.84253</v>
       </c>
-      <c r="K61" s="4">
+      <c r="L61" s="4">
         <v>20.8</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="M61" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3633,35 +3819,38 @@
       <c r="C62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="3">
+        <v>82.408000000000001</v>
+      </c>
+      <c r="E62">
         <v>47527.152000000002</v>
       </c>
-      <c r="E62">
+      <c r="F62">
         <v>13.534594999999999</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>7.3416199999999998</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>100</v>
       </c>
-      <c r="H62">
+      <c r="I62">
         <v>99.919039999999995</v>
       </c>
-      <c r="I62">
+      <c r="J62">
         <v>0.26968402000000002</v>
       </c>
-      <c r="J62">
+      <c r="K62">
         <v>23.390789999999999</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21.2</v>
       </c>
-      <c r="L62" s="8" t="s">
+      <c r="M62" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3671,35 +3860,38 @@
       <c r="C63" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="3">
+        <v>83.715699999999998</v>
+      </c>
+      <c r="E63">
         <v>52725.745999999999</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>10.828128</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>9.0275300000000005</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>99.917029999999997</v>
       </c>
-      <c r="H63">
+      <c r="I63">
         <v>99.884969999999996</v>
       </c>
-      <c r="I63">
+      <c r="J63">
         <v>0.23399895000000001</v>
       </c>
-      <c r="J63">
+      <c r="K63">
         <v>21.553149999999999</v>
       </c>
-      <c r="K63" s="4">
+      <c r="L63" s="4">
         <v>23.1</v>
       </c>
-      <c r="L63" s="8" t="s">
+      <c r="M63" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3709,35 +3901,38 @@
       <c r="C64" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="3">
+        <v>71.478899999999996</v>
+      </c>
+      <c r="E64">
         <v>10332.055</v>
       </c>
-      <c r="E64">
+      <c r="F64">
         <v>9.9599100000000007</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>7.7770599999999996</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>97.895690000000002</v>
       </c>
-      <c r="H64">
+      <c r="I64">
         <v>91.101900000000001</v>
       </c>
-      <c r="I64">
+      <c r="J64">
         <v>1.8331343</v>
       </c>
-      <c r="J64">
+      <c r="K64">
         <v>34.1783</v>
       </c>
-      <c r="K64" s="4">
+      <c r="L64" s="4">
         <v>9.4</v>
       </c>
-      <c r="L64" s="8" t="s">
+      <c r="M64" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3747,35 +3942,38 @@
       <c r="C65" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="3">
+        <v>84.712299999999999</v>
+      </c>
+      <c r="E65">
         <v>45858.66</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>12.684047</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>11.42184</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>99.183170000000004</v>
       </c>
-      <c r="H65">
+      <c r="I65">
         <v>99.945580000000007</v>
       </c>
-      <c r="I65">
+      <c r="J65">
         <v>0.17704405000000001</v>
       </c>
-      <c r="J65">
+      <c r="K65">
         <v>4.9353699999999998</v>
       </c>
-      <c r="K65" s="3">
+      <c r="L65" s="3">
         <v>20.100000000000001</v>
       </c>
-      <c r="L65" s="8" t="s">
+      <c r="M65" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3785,35 +3983,38 @@
       <c r="C66" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="3">
+        <v>77.814499999999995</v>
+      </c>
+      <c r="E66">
         <v>9381.3544999999995</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>10.24</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>6.8281999999999998</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>99.382310000000004</v>
       </c>
-      <c r="H66">
+      <c r="I66">
         <v>96.520319999999998</v>
       </c>
-      <c r="I66">
+      <c r="J66">
         <v>1.2239994000000001</v>
       </c>
-      <c r="J66">
+      <c r="K66">
         <v>35.61215</v>
       </c>
-      <c r="K66" s="4">
+      <c r="L66" s="4">
         <v>34.799999999999997</v>
       </c>
-      <c r="L66" s="8" t="s">
+      <c r="M66" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3823,35 +4024,38 @@
       <c r="C67" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="3">
+        <v>74.402100000000004</v>
+      </c>
+      <c r="E67">
         <v>34703.233999999997</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>12.547174</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>3.7402700000000002</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>99.822890000000001</v>
       </c>
-      <c r="H67">
+      <c r="I67">
         <v>97.948875000000001</v>
       </c>
-      <c r="I67">
+      <c r="J67">
         <v>0.75849230000000001</v>
       </c>
-      <c r="J67">
+      <c r="K67">
         <v>19.343109999999999</v>
       </c>
-      <c r="K67" s="3">
+      <c r="L67" s="3">
         <v>23.2</v>
       </c>
-      <c r="L67" s="8" t="s">
+      <c r="M67" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3861,35 +4065,38 @@
       <c r="C68" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="3">
+        <v>63.645899999999997</v>
+      </c>
+      <c r="E68">
         <v>5682.9893000000002</v>
       </c>
-      <c r="E68">
+      <c r="F68">
         <v>8.6247100000000003</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>4.3260399999999999</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>73.500349999999997</v>
       </c>
-      <c r="H68">
+      <c r="I68">
         <v>40.170338000000001</v>
       </c>
-      <c r="I68">
+      <c r="J68">
         <v>3.4725510000000002</v>
       </c>
-      <c r="J68">
+      <c r="K68">
         <v>11.04457</v>
       </c>
-      <c r="K68" s="3">
+      <c r="L68" s="3">
         <v>11.1</v>
       </c>
-      <c r="L68" s="8" t="s">
+      <c r="M68" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3899,35 +4106,38 @@
       <c r="C69" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="3">
+        <v>80.404700000000005</v>
+      </c>
+      <c r="E69">
         <v>47777.402000000002</v>
       </c>
-      <c r="E69">
+      <c r="F69">
         <v>7.5660069999999999</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>4.2687600000000003</v>
-      </c>
-      <c r="G69">
-        <v>100</v>
       </c>
       <c r="H69">
         <v>100</v>
       </c>
       <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
         <v>0.7577836</v>
       </c>
-      <c r="J69">
+      <c r="K69">
         <v>45.364559999999997</v>
       </c>
-      <c r="K69" s="4">
+      <c r="L69" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="L69" s="8" t="s">
+      <c r="M69" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3937,35 +4147,38 @@
       <c r="C70" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="3">
+        <v>71.677000000000007</v>
+      </c>
+      <c r="E70">
         <v>6575.7754000000004</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>12.065887999999999</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>4.9225899999999996</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>96.626649999999998</v>
       </c>
-      <c r="H70">
+      <c r="I70">
         <v>98.408874999999995</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>1.493485</v>
       </c>
-      <c r="J70">
+      <c r="K70">
         <v>24.413630000000001</v>
       </c>
-      <c r="K70" s="4">
+      <c r="L70" s="4">
         <v>25.4</v>
       </c>
-      <c r="L70" s="8" t="s">
+      <c r="M70" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3975,35 +4188,38 @@
       <c r="C71" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="3">
+        <v>68.963700000000003</v>
+      </c>
+      <c r="E71">
         <v>8372.1560000000009</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>6.0602460000000002</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>2.0182500000000001</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>94.460750000000004</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>86.995994999999994</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>3.5165674999999998</v>
       </c>
-      <c r="J71">
+      <c r="K71">
         <v>7.7580200000000001</v>
       </c>
-      <c r="K71" s="3">
+      <c r="L71" s="3">
         <v>31.8</v>
       </c>
-      <c r="L71" s="8" t="s">
+      <c r="M71" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -4013,35 +4229,38 @@
       <c r="C72" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="3">
+        <v>76.189800000000005</v>
+      </c>
+      <c r="E72">
         <v>38796.550000000003</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>13.40944</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>7.6216799999999996</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>99.423169999999999</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>92.518683999999993</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>0.25186170000000002</v>
       </c>
-      <c r="J72">
+      <c r="K72">
         <v>29.813929999999999</v>
       </c>
-      <c r="K72" s="4">
+      <c r="L72" s="4">
         <v>37</v>
       </c>
-      <c r="L72" s="8" t="s">
+      <c r="M72" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -4051,35 +4270,38 @@
       <c r="C73" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="3">
+        <v>77.816999999999993</v>
+      </c>
+      <c r="E73">
         <v>11330.269</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>10.37</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>5.7350000000000003</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>100</v>
       </c>
-      <c r="H73">
+      <c r="I73">
         <v>99.2</v>
       </c>
-      <c r="I73">
+      <c r="J73">
         <v>1.5995820999999999</v>
       </c>
-      <c r="J73">
+      <c r="K73">
         <v>31.066549999999999</v>
       </c>
-      <c r="K73" s="3">
+      <c r="L73" s="3">
         <v>38.200000000000003</v>
       </c>
-      <c r="L73" s="8" t="s">
+      <c r="M73" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -4089,35 +4311,38 @@
       <c r="C74" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="3">
+        <v>62.162500000000001</v>
+      </c>
+      <c r="E74">
         <v>1616.9237000000001</v>
       </c>
-      <c r="E74">
+      <c r="F74">
         <v>6.1698919999999999</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>13.47386</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>86.669899999999998</v>
       </c>
-      <c r="H74">
+      <c r="I74">
         <v>22.76042</v>
       </c>
-      <c r="I74">
+      <c r="J74">
         <v>5.2567969999999997</v>
       </c>
-      <c r="J74">
+      <c r="K74">
         <v>16.205739999999999</v>
       </c>
-      <c r="K74" s="3">
+      <c r="L74" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L74" s="8" t="s">
+      <c r="M74" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4127,35 +4352,38 @@
       <c r="C75" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="3">
+        <v>76.025000000000006</v>
+      </c>
+      <c r="E75">
         <v>46159.707000000002</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>13.610692</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>7.2433500000000004</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>99.917563999999999</v>
       </c>
-      <c r="H75">
+      <c r="I75">
         <v>96.384839999999997</v>
       </c>
-      <c r="I75">
+      <c r="J75">
         <v>0.28410837</v>
       </c>
-      <c r="J75">
+      <c r="K75">
         <v>31.141590000000001</v>
       </c>
-      <c r="K75" s="4">
+      <c r="L75" s="4">
         <v>32</v>
       </c>
-      <c r="L75" s="8" t="s">
+      <c r="M75" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4165,35 +4393,38 @@
       <c r="C76" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="3">
+        <v>82.229399999999998</v>
+      </c>
+      <c r="E76">
         <v>129021.65</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>12.589371999999999</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>5.5515499999999998</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>100</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>97.603229999999996</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>0.19888467000000001</v>
       </c>
-      <c r="J76">
+      <c r="K76">
         <v>20.211089999999999</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>21.1</v>
       </c>
-      <c r="L76" s="8" t="s">
+      <c r="M76" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4203,35 +4434,38 @@
       <c r="C77" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="3">
+        <v>83.0749</v>
+      </c>
+      <c r="E77">
         <v>104961.92</v>
       </c>
-      <c r="E77">
+      <c r="F77">
         <v>12.64589</v>
       </c>
-      <c r="F77" s="10">
+      <c r="G77" s="10">
         <v>10.443669999999999</v>
-      </c>
-      <c r="G77">
-        <v>100</v>
       </c>
       <c r="H77">
         <v>100</v>
       </c>
       <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77">
         <v>0.23665</v>
       </c>
-      <c r="J77">
+      <c r="K77">
         <v>21.787759999999999</v>
       </c>
-      <c r="K77" s="3">
+      <c r="L77" s="3">
         <v>11.6</v>
       </c>
-      <c r="L77" s="8" t="s">
+      <c r="M77" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -4241,35 +4475,38 @@
       <c r="C78" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="3">
+        <v>63.631700000000002</v>
+      </c>
+      <c r="E78">
         <v>1629.4609</v>
       </c>
-      <c r="E78">
+      <c r="F78">
         <v>4.5925200000000004</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>3.2502300000000002</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>59.426913999999996</v>
       </c>
-      <c r="H78">
+      <c r="I78">
         <v>15.288389</v>
       </c>
-      <c r="I78">
+      <c r="J78">
         <v>4.4175050000000002</v>
       </c>
-      <c r="J78">
+      <c r="K78">
         <v>3.84666</v>
       </c>
-      <c r="K78" s="3">
+      <c r="L78" s="3">
         <v>27.8</v>
       </c>
-      <c r="L78" s="8" t="s">
+      <c r="M78" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4279,35 +4516,38 @@
       <c r="C79" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="3">
+        <v>67.353499999999997</v>
+      </c>
+      <c r="E79">
         <v>1648.4365</v>
       </c>
-      <c r="E79">
+      <c r="F79">
         <v>5.2437399999999998</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>6.5002399999999998</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>93.15164</v>
       </c>
-      <c r="H79">
+      <c r="I79">
         <v>49.236877</v>
       </c>
-      <c r="I79">
+      <c r="J79">
         <v>2.936188</v>
       </c>
-      <c r="J79">
+      <c r="K79">
         <v>6.3734799999999998</v>
       </c>
-      <c r="K79" s="4">
+      <c r="L79" s="4">
         <v>10.8</v>
       </c>
-      <c r="L79" s="8" t="s">
+      <c r="M79" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4317,35 +4557,38 @@
       <c r="C80" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="3">
+        <v>76.6571</v>
+      </c>
+      <c r="E80">
         <v>32812.300000000003</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>11.09</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>3.9059200000000001</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>98.24776</v>
       </c>
-      <c r="H80">
+      <c r="I80">
         <v>96.019139999999993</v>
       </c>
-      <c r="I80">
+      <c r="J80">
         <v>0.67527722999999995</v>
       </c>
-      <c r="J80">
+      <c r="K80">
         <v>22.404920000000001</v>
       </c>
-      <c r="K80" s="4">
+      <c r="L80" s="4">
         <v>22.5</v>
       </c>
-      <c r="L80" s="8" t="s">
+      <c r="M80" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4355,35 +4598,38 @@
       <c r="C81" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="3">
+        <v>60.439399999999999</v>
+      </c>
+      <c r="E81">
         <v>2854.8271</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>1.63</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>3.6728499999999999</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>89.714950000000002</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>46.448585999999999</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>5.7553429999999999</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>9.9528700000000008</v>
       </c>
-      <c r="K81" s="4">
+      <c r="L81" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="M81" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -4393,35 +4639,38 @@
       <c r="C82" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="3">
+        <v>83.298900000000003</v>
+      </c>
+      <c r="E82">
         <v>59293.296999999999</v>
       </c>
-      <c r="E82">
+      <c r="F82">
         <v>12.420702</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>9.5237700000000007</v>
-      </c>
-      <c r="G82">
-        <v>100</v>
       </c>
       <c r="H82">
         <v>100</v>
       </c>
       <c r="I82">
+        <v>100</v>
+      </c>
+      <c r="J82">
         <v>0.48409187999999997</v>
       </c>
-      <c r="J82">
+      <c r="K82">
         <v>34.620620000000002</v>
       </c>
-      <c r="K82" s="3">
+      <c r="L82" s="3">
         <v>24</v>
       </c>
-      <c r="L82" s="8" t="s">
+      <c r="M82" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -4431,35 +4680,38 @@
       <c r="C83" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="3">
+        <v>68.483599999999996</v>
+      </c>
+      <c r="E83">
         <v>6258.7110000000002</v>
       </c>
-      <c r="E83">
+      <c r="F83">
         <v>4.8520260000000004</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>4.4839000000000002</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>88.648759999999996</v>
       </c>
-      <c r="H83">
+      <c r="I83">
         <v>58.260834000000003</v>
       </c>
-      <c r="I83">
+      <c r="J83">
         <v>3.1021063</v>
       </c>
-      <c r="J83">
+      <c r="K83">
         <v>20.841889999999999</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10.7</v>
       </c>
-      <c r="L83" s="8" t="s">
+      <c r="M83" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -4469,35 +4721,38 @@
       <c r="C84" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="3">
+        <v>74.926299999999998</v>
+      </c>
+      <c r="E84">
         <v>26060.732</v>
       </c>
-      <c r="E84">
+      <c r="F84">
         <v>10.103327999999999</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>5.8238200000000004</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>99.902410000000003</v>
       </c>
-      <c r="H84">
+      <c r="I84">
         <v>97.090410000000006</v>
       </c>
-      <c r="I84">
+      <c r="J84">
         <v>1.3521817</v>
       </c>
-      <c r="J84">
+      <c r="K84">
         <v>19.470770000000002</v>
       </c>
-      <c r="K84" s="3">
+      <c r="L84" s="3">
         <v>20.2</v>
       </c>
-      <c r="L84" s="8" t="s">
+      <c r="M84" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -4507,35 +4762,38 @@
       <c r="C85" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="3">
+        <v>75.069000000000003</v>
+      </c>
+      <c r="E85">
         <v>21905.178</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>9.3495109999999997</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>5.7214499999999999</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>99.409520000000001</v>
       </c>
-      <c r="H85">
+      <c r="I85">
         <v>92.978454999999997</v>
       </c>
-      <c r="I85">
+      <c r="J85">
         <v>1.0759847</v>
       </c>
-      <c r="J85">
+      <c r="K85">
         <v>36.086030000000001</v>
       </c>
-      <c r="K85" s="4">
+      <c r="L85" s="4">
         <v>13.1</v>
       </c>
-      <c r="L85" s="8" t="s">
+      <c r="M85" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -4545,35 +4803,38 @@
       <c r="C86" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="3">
+        <v>71.198499999999996</v>
+      </c>
+      <c r="E86">
         <v>15990.479499999999</v>
       </c>
-      <c r="E86">
+      <c r="F86">
         <v>11.83</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>6.9650499999999997</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>93.823160000000001</v>
       </c>
-      <c r="H86">
+      <c r="I86">
         <v>86.309430000000006</v>
       </c>
-      <c r="I86">
+      <c r="J86">
         <v>1.3492512000000001</v>
       </c>
-      <c r="J86">
+      <c r="K86">
         <v>25.645040000000002</v>
       </c>
-      <c r="K86" s="3">
+      <c r="L86" s="3">
         <v>29</v>
       </c>
-      <c r="L86" s="8" t="s">
+      <c r="M86" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -4583,35 +4844,38 @@
       <c r="C87" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="3">
+        <v>71.734099999999998</v>
+      </c>
+      <c r="E87">
         <v>16222.864</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>9.42</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>8.8516999999999992</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>90.875045999999998</v>
       </c>
-      <c r="H87">
+      <c r="I87">
         <v>72.885170000000002</v>
       </c>
-      <c r="I87">
+      <c r="J87">
         <v>1.1371926000000001</v>
       </c>
-      <c r="J87">
+      <c r="K87">
         <v>23.988009999999999</v>
       </c>
-      <c r="K87" s="3">
+      <c r="L87" s="3">
         <v>29.4</v>
       </c>
-      <c r="L87" s="8" t="s">
+      <c r="M87" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -4621,35 +4885,38 @@
       <c r="C88" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="3">
+        <v>77.0869</v>
+      </c>
+      <c r="E88">
         <v>27043.328000000001</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>12.773925999999999</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>10.922420000000001</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>99.834770000000006</v>
       </c>
-      <c r="H88">
+      <c r="I88">
         <v>97.829790000000003</v>
       </c>
-      <c r="I88">
+      <c r="J88">
         <v>0.21079861999999999</v>
       </c>
-      <c r="J88">
+      <c r="K88">
         <v>21.052119999999999</v>
       </c>
-      <c r="K88" s="3">
+      <c r="L88" s="3">
         <v>31.4</v>
       </c>
-      <c r="L88" s="8" t="s">
+      <c r="M88" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -4659,35 +4926,38 @@
       <c r="C89" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="3">
+        <v>75.312799999999996</v>
+      </c>
+      <c r="E89">
         <v>8868.7119999999995</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>6.1980000000000004</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>5.6804899999999998</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>95.057755</v>
       </c>
-      <c r="H89">
+      <c r="I89">
         <v>87.647559999999999</v>
       </c>
-      <c r="I89">
+      <c r="J89">
         <v>1.5491406000000001</v>
       </c>
-      <c r="J89">
+      <c r="K89">
         <v>22.127669999999998</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14.5</v>
       </c>
-      <c r="L89" s="8" t="s">
+      <c r="M89" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -4697,35 +4967,38 @@
       <c r="C90" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="3">
+        <v>63.6111</v>
+      </c>
+      <c r="E90">
         <v>1511.6365000000001</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>4.59049</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>8.7771799999999995</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>73.411159999999995</v>
       </c>
-      <c r="H90">
+      <c r="I90">
         <v>37.257483999999998</v>
       </c>
-      <c r="I90">
+      <c r="J90">
         <v>4.5415409999999996</v>
       </c>
-      <c r="J90">
+      <c r="K90">
         <v>8.7818000000000005</v>
       </c>
-      <c r="K90" s="3">
+      <c r="L90" s="3">
         <v>14.3</v>
       </c>
-      <c r="L90" s="8" t="s">
+      <c r="M90" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -4735,35 +5008,38 @@
       <c r="C91" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="3">
+        <v>66.888999999999996</v>
+      </c>
+      <c r="E91">
         <v>5364.1379999999999</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>6.38</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>5.2047600000000003</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>86.358410000000006</v>
       </c>
-      <c r="H91">
+      <c r="I91">
         <v>74.156189999999995</v>
       </c>
-      <c r="I91">
+      <c r="J91">
         <v>3.4105905999999999</v>
       </c>
-      <c r="J91">
+      <c r="K91">
         <v>7.5405800000000003</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>44.1</v>
       </c>
-      <c r="L91" s="8" t="s">
+      <c r="M91" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -4773,35 +5049,38 @@
       <c r="C92" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="3">
+        <v>62.109400000000001</v>
+      </c>
+      <c r="E92">
         <v>12461.136</v>
       </c>
-      <c r="E92">
+      <c r="F92">
         <v>9.4486380000000008</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>18.170310000000001</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>98.391689999999997</v>
       </c>
-      <c r="H92">
+      <c r="I92">
         <v>70.970929999999996</v>
       </c>
-      <c r="I92">
+      <c r="J92">
         <v>0.82916809999999996</v>
       </c>
-      <c r="J92">
+      <c r="K92">
         <v>70.182860000000005</v>
       </c>
-      <c r="K92" s="3">
+      <c r="L92" s="3">
         <v>48.5</v>
       </c>
-      <c r="L92" s="8" t="s">
+      <c r="M92" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -4811,35 +5090,38 @@
       <c r="C93" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="3">
+        <v>70.353700000000003</v>
+      </c>
+      <c r="E93">
         <v>4861.2304999999997</v>
       </c>
-      <c r="E93">
+      <c r="F93">
         <v>4.50373</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>6.6558900000000003</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>96.439790000000002</v>
       </c>
-      <c r="H93">
+      <c r="I93">
         <v>82.587789999999998</v>
       </c>
-      <c r="I93">
+      <c r="J93">
         <v>2.329647</v>
       </c>
-      <c r="J93">
+      <c r="K93">
         <v>6.5755400000000002</v>
       </c>
-      <c r="K93" s="3">
+      <c r="L93" s="3">
         <v>30.4</v>
       </c>
-      <c r="L93" s="8" t="s">
+      <c r="M93" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -4849,35 +5131,38 @@
       <c r="C94" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="3">
+        <v>82.157600000000002</v>
+      </c>
+      <c r="E94">
         <v>70673.97</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>12.669947000000001</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>10.100680000000001</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>100</v>
       </c>
-      <c r="H94">
+      <c r="I94">
         <v>97.663229999999999</v>
       </c>
-      <c r="I94">
+      <c r="J94">
         <v>0.34663653</v>
       </c>
-      <c r="J94">
+      <c r="K94">
         <v>16.910879999999999</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>22.2</v>
       </c>
-      <c r="L94" s="8" t="s">
+      <c r="M94" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>95</v>
       </c>
@@ -4887,35 +5172,38 @@
       <c r="C95" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="3">
+        <v>82.087999999999994</v>
+      </c>
+      <c r="E95">
         <v>49083.508000000002</v>
       </c>
-      <c r="E95">
+      <c r="F95">
         <v>12.882998000000001</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>10.02858</v>
-      </c>
-      <c r="G95">
-        <v>100</v>
       </c>
       <c r="H95">
         <v>100</v>
       </c>
       <c r="I95">
+        <v>100</v>
+      </c>
+      <c r="J95">
         <v>0.39842337</v>
       </c>
-      <c r="J95">
+      <c r="K95">
         <v>34.245359999999998</v>
       </c>
-      <c r="K95" s="3">
+      <c r="L95" s="3">
         <v>13.7</v>
       </c>
-      <c r="L95" s="8" t="s">
+      <c r="M95" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="2">
         <v>96</v>
       </c>
@@ -4925,35 +5213,38 @@
       <c r="C96" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="3">
+        <v>61.183300000000003</v>
+      </c>
+      <c r="E96">
         <v>1689.5642</v>
       </c>
-      <c r="E96">
+      <c r="F96">
         <v>1.4122893999999999</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>4.3525999999999998</v>
       </c>
-      <c r="G96">
+      <c r="H96">
         <v>68.996440000000007</v>
       </c>
-      <c r="H96">
+      <c r="I96">
         <v>15.87229</v>
       </c>
-      <c r="I96">
+      <c r="J96">
         <v>6.7361474000000001</v>
       </c>
-      <c r="J96">
+      <c r="K96">
         <v>5.3259400000000001</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>7.4</v>
       </c>
-      <c r="L96" s="8" t="s">
+      <c r="M96" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>97</v>
       </c>
@@ -4963,35 +5254,38 @@
       <c r="C97" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="3">
+        <v>54.462299999999999</v>
+      </c>
+      <c r="E97">
         <v>5593.0565999999999</v>
       </c>
-      <c r="E97">
+      <c r="F97">
         <v>7.5859699999999997</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>4.2709000000000001</v>
       </c>
-      <c r="G97">
+      <c r="H97">
         <v>84.982079999999996</v>
       </c>
-      <c r="H97">
+      <c r="I97">
         <v>47.715580000000003</v>
       </c>
-      <c r="I97">
+      <c r="J97">
         <v>6.0097512999999996</v>
       </c>
-      <c r="J97">
+      <c r="K97">
         <v>10.836690000000001</v>
       </c>
-      <c r="K97" s="3">
+      <c r="L97" s="3">
         <v>3.7</v>
       </c>
-      <c r="L97" s="8" t="s">
+      <c r="M97" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>98</v>
       </c>
@@ -5001,35 +5295,38 @@
       <c r="C98" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="3">
+        <v>73.641800000000003</v>
+      </c>
+      <c r="E98">
         <v>1857.0345</v>
       </c>
-      <c r="E98">
+      <c r="F98">
         <v>12.42</v>
       </c>
-      <c r="F98" s="10">
+      <c r="G98" s="10">
         <v>9.7324000000000002</v>
       </c>
-      <c r="G98">
+      <c r="H98">
         <v>94.598349999999996</v>
       </c>
-      <c r="H98">
+      <c r="I98">
         <v>84.818449999999999</v>
       </c>
-      <c r="I98">
+      <c r="J98">
         <v>1.4535499999999999</v>
       </c>
-      <c r="J98">
+      <c r="K98">
         <v>10.86703</v>
       </c>
-      <c r="K98" s="3">
+      <c r="L98" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="L98" s="8" t="s">
+      <c r="M98" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>99</v>
       </c>
@@ -5039,35 +5336,38 @@
       <c r="C99" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="3">
+        <v>77.3947</v>
+      </c>
+      <c r="E99">
         <v>23343.601999999999</v>
       </c>
-      <c r="E99">
+      <c r="F99">
         <v>10.23</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>7.6204099999999997</v>
       </c>
-      <c r="G99">
+      <c r="H99">
         <v>99.77561</v>
       </c>
-      <c r="H99">
+      <c r="I99">
         <v>98.989400000000003</v>
       </c>
-      <c r="I99">
+      <c r="J99">
         <v>0.28481832000000001</v>
       </c>
-      <c r="J99">
+      <c r="K99">
         <v>30.648800000000001</v>
       </c>
-      <c r="K99" s="3">
+      <c r="L99" s="3">
         <v>45.4</v>
       </c>
-      <c r="L99" s="8" t="s">
+      <c r="M99" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>100</v>
       </c>
@@ -5077,35 +5377,38 @@
       <c r="C100" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="3">
+        <v>83.3078</v>
+      </c>
+      <c r="E100">
         <v>90085.554999999993</v>
       </c>
-      <c r="E100">
+      <c r="F100">
         <v>13.117962</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>7.9480300000000002</v>
       </c>
-      <c r="G100">
+      <c r="H100">
         <v>99.999989999999997</v>
       </c>
-      <c r="H100">
+      <c r="I100">
         <v>98.048010000000005</v>
       </c>
-      <c r="I100">
+      <c r="J100">
         <v>0.19348931</v>
       </c>
-      <c r="J100">
+      <c r="K100">
         <v>19.765049999999999</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>16.2</v>
       </c>
-      <c r="L100" s="8" t="s">
+      <c r="M100" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>101</v>
       </c>
@@ -5115,35 +5418,38 @@
       <c r="C101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="3">
+        <v>80.030500000000004</v>
+      </c>
+      <c r="E101">
         <v>37709.065999999999</v>
       </c>
-      <c r="E101">
+      <c r="F101">
         <v>11.89</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>2.91622</v>
       </c>
-      <c r="G101">
+      <c r="H101">
         <v>99.754419999999996</v>
       </c>
-      <c r="H101">
+      <c r="I101">
         <v>99.320779999999999</v>
       </c>
-      <c r="I101">
+      <c r="J101">
         <v>0.83656204000000001</v>
       </c>
-      <c r="J101">
+      <c r="K101">
         <v>30.186879999999999</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>8</v>
       </c>
-      <c r="L101" s="8" t="s">
+      <c r="M101" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>102</v>
       </c>
@@ -5153,35 +5459,38 @@
       <c r="C102" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="3">
+        <v>67.649000000000001</v>
+      </c>
+      <c r="E102">
         <v>5439.1796999999997</v>
       </c>
-      <c r="E102">
+      <c r="F102">
         <v>4.3169870000000001</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>2.9043399999999999</v>
       </c>
-      <c r="G102">
+      <c r="H102">
         <v>95.130880000000005</v>
       </c>
-      <c r="H102">
+      <c r="I102">
         <v>71.824325999999999</v>
       </c>
-      <c r="I102">
+      <c r="J102">
         <v>5.012194</v>
       </c>
-      <c r="J102">
+      <c r="K102">
         <v>21.847449999999998</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>20.2</v>
       </c>
-      <c r="L102" s="8" t="s">
+      <c r="M102" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>103</v>
       </c>
@@ -5191,35 +5500,38 @@
       <c r="C103" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="3">
+        <v>69.269000000000005</v>
+      </c>
+      <c r="E103">
         <v>15796.535</v>
       </c>
-      <c r="E103">
+      <c r="F103">
         <v>13.299035</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>14.28556</v>
       </c>
-      <c r="G103">
+      <c r="H103">
         <v>99.529970000000006</v>
       </c>
-      <c r="H103">
+      <c r="I103">
         <v>99.021770000000004</v>
       </c>
-      <c r="I103">
+      <c r="J103">
         <v>1.9114968000000001</v>
       </c>
-      <c r="J103">
+      <c r="K103">
         <v>42.203629999999997</v>
       </c>
-      <c r="K103" s="3">
+      <c r="L103" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="L103" s="8" t="s">
+      <c r="M103" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>104</v>
       </c>
@@ -5229,35 +5541,38 @@
       <c r="C104" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="3">
+        <v>66.134</v>
+      </c>
+      <c r="E104">
         <v>4205.8477000000003</v>
       </c>
-      <c r="E104">
+      <c r="F104">
         <v>4.9625310000000002</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>2.6182500000000002</v>
       </c>
-      <c r="G104">
+      <c r="H104">
         <v>59.011580000000002</v>
       </c>
-      <c r="H104">
+      <c r="I104">
         <v>23.225791999999998</v>
       </c>
-      <c r="I104">
+      <c r="J104">
         <v>3.1989812999999998</v>
       </c>
-      <c r="J104">
+      <c r="K104">
         <v>20.12462</v>
       </c>
-      <c r="K104" s="3">
+      <c r="L104" s="3">
         <v>39.299999999999997</v>
       </c>
-      <c r="L104" s="8" t="s">
+      <c r="M104" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>105</v>
       </c>
@@ -5267,35 +5582,38 @@
       <c r="C105" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="3">
+        <v>73.844300000000004</v>
+      </c>
+      <c r="E105">
         <v>15826.088</v>
       </c>
-      <c r="E105">
+      <c r="F105">
         <v>8.9306540000000005</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>7.7380399999999998</v>
       </c>
-      <c r="G105">
+      <c r="H105">
         <v>100</v>
       </c>
-      <c r="H105">
+      <c r="I105">
         <v>95.249179999999996</v>
       </c>
-      <c r="I105">
+      <c r="J105">
         <v>1.5143610999999999</v>
       </c>
-      <c r="J105">
+      <c r="K105">
         <v>32.083390000000001</v>
       </c>
-      <c r="K105" s="3">
+      <c r="L105" s="3">
         <v>11.5</v>
       </c>
-      <c r="L105" s="8" t="s">
+      <c r="M105" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>106</v>
       </c>
@@ -5305,35 +5623,38 @@
       <c r="C106" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="3">
+        <v>77.740099999999998</v>
+      </c>
+      <c r="E106">
         <v>15327.582</v>
       </c>
-      <c r="E106">
+      <c r="F106">
         <v>10.154652</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>6.0930900000000001</v>
       </c>
-      <c r="G106">
+      <c r="H106">
         <v>95.624030000000005</v>
       </c>
-      <c r="H106">
+      <c r="I106">
         <v>78.257159999999999</v>
       </c>
-      <c r="I106">
+      <c r="J106">
         <v>1.3542430000000001</v>
       </c>
-      <c r="J106">
+      <c r="K106">
         <v>27.184729999999998</v>
       </c>
-      <c r="K106" s="3">
+      <c r="L106" s="3">
         <v>8.1</v>
       </c>
-      <c r="L106" s="8" t="s">
+      <c r="M106" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>107</v>
       </c>
@@ -5343,35 +5664,38 @@
       <c r="C107" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="3">
+        <v>69.832700000000003</v>
+      </c>
+      <c r="E107">
         <v>9898.5329999999994</v>
       </c>
-      <c r="E107">
+      <c r="F107">
         <v>9.9772400000000001</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>5.1567600000000002</v>
       </c>
-      <c r="G107">
+      <c r="H107">
         <v>98.304940000000002</v>
       </c>
-      <c r="H107">
+      <c r="I107">
         <v>85.991294999999994</v>
       </c>
-      <c r="I107">
+      <c r="J107">
         <v>2.2122204000000001</v>
       </c>
-      <c r="J107">
+      <c r="K107">
         <v>8.7360500000000005</v>
       </c>
-      <c r="K107" s="3">
+      <c r="L107" s="3">
         <v>22.9</v>
       </c>
-      <c r="L107" s="8" t="s">
+      <c r="M107" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>108</v>
       </c>
@@ -5381,35 +5705,38 @@
       <c r="C108" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="3">
+        <v>78.632900000000006</v>
+      </c>
+      <c r="E108">
         <v>43672.766000000003</v>
       </c>
-      <c r="E108">
+      <c r="F108">
         <v>13.208543000000001</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>6.3962599999999998</v>
       </c>
-      <c r="G108">
+      <c r="H108">
         <v>90.648480000000006</v>
       </c>
-      <c r="H108">
+      <c r="I108">
         <v>98.956695999999994</v>
       </c>
-      <c r="I108">
+      <c r="J108">
         <v>0.37315816000000002</v>
       </c>
-      <c r="J108">
+      <c r="K108">
         <v>31.41283</v>
       </c>
-      <c r="K108" s="3">
+      <c r="L108" s="3">
         <v>24</v>
       </c>
-      <c r="L108" s="8" t="s">
+      <c r="M108" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>109</v>
       </c>
@@ -5419,35 +5746,38 @@
       <c r="C109" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="3">
+        <v>82.359899999999996</v>
+      </c>
+      <c r="E109">
         <v>41571.019999999997</v>
       </c>
-      <c r="E109">
+      <c r="F109">
         <v>9.7032550000000004</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>10.468830000000001</v>
       </c>
-      <c r="G109">
+      <c r="H109">
         <v>99.276219999999995</v>
       </c>
-      <c r="H109">
+      <c r="I109">
         <v>99.660210000000006</v>
       </c>
-      <c r="I109">
+      <c r="J109">
         <v>0.25587981999999998</v>
       </c>
-      <c r="J109">
+      <c r="K109">
         <v>27.061990000000002</v>
       </c>
-      <c r="K109" s="3">
+      <c r="L109" s="3">
         <v>25.4</v>
       </c>
-      <c r="L109" s="8" t="s">
+      <c r="M109" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>110</v>
       </c>
@@ -5457,35 +5787,38 @@
       <c r="C110" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="3">
+        <v>82.367999999999995</v>
+      </c>
+      <c r="E110">
         <v>116159.14</v>
       </c>
-      <c r="E110">
+      <c r="F110">
         <v>10.77</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>2.1811199999999999</v>
       </c>
-      <c r="G110">
+      <c r="H110">
         <v>99.988975999999994</v>
       </c>
-      <c r="H110">
+      <c r="I110">
         <v>99.936549999999997</v>
       </c>
-      <c r="I110">
+      <c r="J110">
         <v>0.48727609999999999</v>
       </c>
-      <c r="J110">
+      <c r="K110">
         <v>43.75553</v>
       </c>
-      <c r="K110" s="3">
+      <c r="L110" s="3">
         <v>11.8</v>
       </c>
-      <c r="L110" s="8" t="s">
+      <c r="M110" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>111</v>
       </c>
@@ -5495,35 +5828,38 @@
       <c r="C111" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="3">
+        <v>75.938100000000006</v>
+      </c>
+      <c r="E111">
         <v>40301.5</v>
       </c>
-      <c r="E111">
+      <c r="F111">
         <v>11.55</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>5.7490100000000002</v>
       </c>
-      <c r="G111">
+      <c r="H111">
         <v>100</v>
       </c>
-      <c r="H111">
+      <c r="I111">
         <v>90.505529999999993</v>
       </c>
-      <c r="I111">
+      <c r="J111">
         <v>0.53904039999999998</v>
       </c>
-      <c r="J111">
+      <c r="K111">
         <v>38.236280000000001</v>
       </c>
-      <c r="K111" s="3">
+      <c r="L111" s="3">
         <v>28</v>
       </c>
-      <c r="L111" s="8" t="s">
+      <c r="M111" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>112</v>
       </c>
@@ -5533,35 +5869,38 @@
       <c r="C112" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="3">
+        <v>73.1541</v>
+      </c>
+      <c r="E112">
         <v>39887.339999999997</v>
       </c>
-      <c r="E112">
+      <c r="F112">
         <v>12.41</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>6.9198599999999999</v>
       </c>
-      <c r="G112">
+      <c r="H112">
         <v>97.476780000000005</v>
       </c>
-      <c r="H112">
+      <c r="I112">
         <v>91.58869</v>
       </c>
-      <c r="I112">
+      <c r="J112">
         <v>0.3659559</v>
       </c>
-      <c r="J112">
+      <c r="K112">
         <v>28.049440000000001</v>
       </c>
-      <c r="K112" s="3">
+      <c r="L112" s="3">
         <v>26.8</v>
       </c>
-      <c r="L112" s="8" t="s">
+      <c r="M112" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>113</v>
       </c>
@@ -5571,35 +5910,38 @@
       <c r="C113" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="3">
+        <v>67.785200000000003</v>
+      </c>
+      <c r="E113">
         <v>3062.9989999999998</v>
       </c>
-      <c r="E113">
+      <c r="F113">
         <v>4.88</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>7.8792099999999996</v>
       </c>
-      <c r="G113">
+      <c r="H113">
         <v>83.445946000000006</v>
       </c>
-      <c r="H113">
+      <c r="I113">
         <v>80.347565000000003</v>
       </c>
-      <c r="I113">
+      <c r="J113">
         <v>3.0479224</v>
       </c>
-      <c r="J113">
+      <c r="K113">
         <v>4.5690799999999996</v>
       </c>
-      <c r="K113" s="3">
+      <c r="L113" s="3">
         <v>13.7</v>
       </c>
-      <c r="L113" s="8" t="s">
+      <c r="M113" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>114</v>
       </c>
@@ -5609,35 +5951,38 @@
       <c r="C114" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="3">
+        <v>72.696799999999996</v>
+      </c>
+      <c r="E114">
         <v>23403.743999999999</v>
       </c>
-      <c r="E114">
+      <c r="F114">
         <v>8.6141670000000001</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>5.01938</v>
       </c>
-      <c r="G114">
+      <c r="H114">
         <v>99.935640000000006</v>
       </c>
-      <c r="H114">
+      <c r="I114">
         <v>89.667500000000004</v>
       </c>
-      <c r="I114">
+      <c r="J114">
         <v>1.4253898</v>
       </c>
-      <c r="J114">
+      <c r="K114">
         <v>33.934519999999999</v>
       </c>
-      <c r="K114" s="3">
+      <c r="L114" s="3">
         <v>13.8</v>
       </c>
-      <c r="L114" s="8" t="s">
+      <c r="M114" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>115</v>
       </c>
@@ -5647,35 +5992,38 @@
       <c r="C115" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="3">
+        <v>69.718199999999996</v>
+      </c>
+      <c r="E115">
         <v>5541.3019999999997</v>
       </c>
-      <c r="E115">
+      <c r="F115">
         <v>5.9875593</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>7.4641999999999999</v>
       </c>
-      <c r="G115">
+      <c r="H115">
         <v>98.19502</v>
       </c>
-      <c r="H115">
+      <c r="I115">
         <v>48.60866</v>
       </c>
-      <c r="I115">
+      <c r="J115">
         <v>0.94138980000000005</v>
       </c>
-      <c r="J115">
+      <c r="K115">
         <v>15.03851</v>
       </c>
-      <c r="K115" s="3">
+      <c r="L115" s="3">
         <v>5.7</v>
       </c>
-      <c r="L115" s="8" t="s">
+      <c r="M115" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>116</v>
       </c>
@@ -5685,35 +6033,38 @@
       <c r="C116" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="3">
+        <v>78.732100000000003</v>
+      </c>
+      <c r="E116">
         <v>64481.843999999997</v>
       </c>
-      <c r="E116">
+      <c r="F116">
         <v>11.606427999999999</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>4.6246200000000002</v>
       </c>
-      <c r="G116">
+      <c r="H116">
         <v>99.720146</v>
       </c>
-      <c r="H116">
+      <c r="I116">
         <v>97.602410000000006</v>
       </c>
-      <c r="I116">
+      <c r="J116">
         <v>0.48824595999999998</v>
       </c>
-      <c r="J116">
+      <c r="K116">
         <v>41.1081</v>
       </c>
-      <c r="K116" s="3">
+      <c r="L116" s="3">
         <v>14.3</v>
       </c>
-      <c r="L116" s="8" t="s">
+      <c r="M116" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>117</v>
       </c>
@@ -5723,35 +6074,38 @@
       <c r="C117" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="3">
+        <v>68.682900000000004</v>
+      </c>
+      <c r="E117">
         <v>4304.7617</v>
       </c>
-      <c r="E117">
+      <c r="F117">
         <v>2.9345539999999999</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>4.06358</v>
       </c>
-      <c r="G117">
+      <c r="H117">
         <v>89.828469999999996</v>
       </c>
-      <c r="H117">
+      <c r="I117">
         <v>61.466132999999999</v>
       </c>
-      <c r="I117">
+      <c r="J117">
         <v>3.020778</v>
       </c>
-      <c r="J117">
+      <c r="K117">
         <v>8.68215</v>
       </c>
-      <c r="K117" s="3">
+      <c r="L117" s="3">
         <v>6.9</v>
       </c>
-      <c r="L117" s="8" t="s">
+      <c r="M117" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>118</v>
       </c>
@@ -5761,35 +6115,38 @@
       <c r="C118" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="3">
+        <v>76.769300000000001</v>
+      </c>
+      <c r="E118">
         <v>25740.203000000001</v>
       </c>
-      <c r="E118">
+      <c r="F118">
         <v>11.641717999999999</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>9.6574299999999997</v>
       </c>
-      <c r="G118">
+      <c r="H118">
         <v>99.271125999999995</v>
       </c>
-      <c r="H118">
+      <c r="I118">
         <v>97.93477</v>
       </c>
-      <c r="I118">
+      <c r="J118">
         <v>0.44578079999999998</v>
       </c>
-      <c r="J118">
+      <c r="K118">
         <v>26.05491</v>
       </c>
-      <c r="K118" s="3">
+      <c r="L118" s="3">
         <v>39.799999999999997</v>
       </c>
-      <c r="L118" s="8" t="s">
+      <c r="M118" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>119</v>
       </c>
@@ -5799,35 +6156,38 @@
       <c r="C119" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="3">
+        <v>72.861999999999995</v>
+      </c>
+      <c r="E119">
         <v>28635.355</v>
       </c>
-      <c r="E119">
+      <c r="F119">
         <v>11.199949999999999</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>4.23752</v>
       </c>
-      <c r="G119">
+      <c r="H119">
         <v>97.553955000000002</v>
       </c>
-      <c r="H119">
+      <c r="I119">
         <v>99.7</v>
       </c>
-      <c r="I119">
+      <c r="J119">
         <v>1.3132598</v>
       </c>
-      <c r="J119">
+      <c r="K119">
         <v>30.266950000000001</v>
       </c>
-      <c r="K119" s="3">
+      <c r="L119" s="3">
         <v>20.2</v>
       </c>
-      <c r="L119" s="8" t="s">
+      <c r="M119" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>120</v>
       </c>
@@ -5837,35 +6197,38 @@
       <c r="C120" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="3">
+        <v>61.785800000000002</v>
+      </c>
+      <c r="E120">
         <v>3037.6765</v>
       </c>
-      <c r="E120">
+      <c r="F120">
         <v>3.5352975999999998</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>7.9475199999999999</v>
       </c>
-      <c r="G120">
+      <c r="H120">
         <v>74.402100000000004</v>
       </c>
-      <c r="H120">
+      <c r="I120">
         <v>23.904871</v>
       </c>
-      <c r="I120">
+      <c r="J120">
         <v>5.6168079999999998</v>
       </c>
-      <c r="J120">
+      <c r="K120">
         <v>6.4752700000000001</v>
       </c>
-      <c r="K120" s="3">
+      <c r="L120" s="3">
         <v>13.5</v>
       </c>
-      <c r="L120" s="8" t="s">
+      <c r="M120" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>121</v>
       </c>
@@ -5875,35 +6238,38 @@
       <c r="C121" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="3">
+        <v>83.736199999999997</v>
+      </c>
+      <c r="E121">
         <v>129555.24</v>
       </c>
-      <c r="E121">
+      <c r="F121">
         <v>11.99</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>4.89703</v>
-      </c>
-      <c r="G121">
-        <v>100</v>
       </c>
       <c r="H121">
         <v>100</v>
       </c>
       <c r="I121">
+        <v>100</v>
+      </c>
+      <c r="J121">
         <v>0.17220704000000001</v>
       </c>
-      <c r="J121">
+      <c r="K121">
         <v>13.535920000000001</v>
       </c>
-      <c r="K121" s="3">
+      <c r="L121" s="3">
         <v>16.5</v>
       </c>
-      <c r="L121" s="8" t="s">
+      <c r="M121" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>122</v>
       </c>
@@ -5913,35 +6279,38 @@
       <c r="C122" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="3">
+        <v>78.341399999999993</v>
+      </c>
+      <c r="E122">
         <v>39497.535000000003</v>
       </c>
-      <c r="E122">
+      <c r="F122">
         <v>13.103204</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>7.7306400000000002</v>
       </c>
-      <c r="G122">
+      <c r="H122">
         <v>100</v>
       </c>
-      <c r="H122">
+      <c r="I122">
         <v>97.539320000000004</v>
       </c>
-      <c r="I122">
+      <c r="J122">
         <v>0.50790290000000005</v>
       </c>
-      <c r="J122">
+      <c r="K122">
         <v>30.280889999999999</v>
       </c>
-      <c r="K122" s="3">
+      <c r="L122" s="3">
         <v>31.5</v>
       </c>
-      <c r="L122" s="8" t="s">
+      <c r="M122" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>123</v>
       </c>
@@ -5951,35 +6320,38 @@
       <c r="C123" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="3">
+        <v>81.603399999999993</v>
+      </c>
+      <c r="E123">
         <v>47868.387000000002</v>
       </c>
-      <c r="E123">
+      <c r="F123">
         <v>12.951202</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>9.6050799999999992</v>
       </c>
-      <c r="G123">
+      <c r="H123">
         <v>99.574590000000001</v>
       </c>
-      <c r="H123">
+      <c r="I123">
         <v>98.311160000000001</v>
       </c>
-      <c r="I123">
+      <c r="J123">
         <v>0.18290480000000001</v>
       </c>
-      <c r="J123">
+      <c r="K123">
         <v>22.204979999999999</v>
       </c>
-      <c r="K123" s="3">
+      <c r="L123" s="3">
         <v>22</v>
       </c>
-      <c r="L123" s="8" t="s">
+      <c r="M123" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>124</v>
       </c>
@@ -5989,35 +6361,38 @@
       <c r="C124" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="3">
+        <v>70.527699999999996</v>
+      </c>
+      <c r="E124">
         <v>2523.6190000000001</v>
       </c>
-      <c r="E124">
+      <c r="F124">
         <v>5.8796799999999996</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>4.82369</v>
       </c>
-      <c r="G124">
+      <c r="H124">
         <v>77.658240000000006</v>
       </c>
-      <c r="H124">
+      <c r="I124">
         <v>34.402569999999997</v>
       </c>
-      <c r="I124">
+      <c r="J124">
         <v>1.6518092</v>
       </c>
-      <c r="J124">
+      <c r="K124">
         <v>21.62689</v>
       </c>
-      <c r="K124" s="3">
+      <c r="L124" s="3">
         <v>36.5</v>
       </c>
-      <c r="L124" s="8" t="s">
+      <c r="M124" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>125</v>
       </c>
@@ -6027,35 +6402,38 @@
       <c r="C125" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="3">
+        <v>66.1387</v>
+      </c>
+      <c r="E125">
         <v>13690.39</v>
       </c>
-      <c r="E125">
+      <c r="F125">
         <v>11.61</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>8.7708700000000004</v>
       </c>
-      <c r="G125">
+      <c r="H125">
         <v>97.331500000000005</v>
       </c>
-      <c r="H125">
+      <c r="I125">
         <v>76.781630000000007</v>
       </c>
-      <c r="I125">
+      <c r="J125">
         <v>2.441754</v>
       </c>
-      <c r="J125">
+      <c r="K125">
         <v>30.033760000000001</v>
       </c>
-      <c r="K125" s="3">
+      <c r="L125" s="3">
         <v>20.3</v>
       </c>
-      <c r="L125" s="8" t="s">
+      <c r="M125" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>126</v>
       </c>
@@ -6065,35 +6443,38 @@
       <c r="C126" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="3">
+        <v>84.328800000000001</v>
+      </c>
+      <c r="E126">
         <v>50414.207000000002</v>
       </c>
-      <c r="E126">
+      <c r="F126">
         <v>12.722198499999999</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>9.4341399999999993</v>
       </c>
-      <c r="G126">
+      <c r="H126">
         <v>99.979969999999994</v>
       </c>
-      <c r="H126">
+      <c r="I126">
         <v>99.745729999999995</v>
       </c>
-      <c r="I126">
+      <c r="J126">
         <v>0.23041122999999999</v>
       </c>
-      <c r="J126">
+      <c r="K126">
         <v>6.7333400000000001</v>
       </c>
-      <c r="K126" s="3">
+      <c r="L126" s="3">
         <v>20.8</v>
       </c>
-      <c r="L126" s="8" t="s">
+      <c r="M126" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>127</v>
       </c>
@@ -6103,35 +6484,38 @@
       <c r="C127" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="3">
+        <v>83.670299999999997</v>
+      </c>
+      <c r="E127">
         <v>47341.17</v>
       </c>
-      <c r="E127">
+      <c r="F127">
         <v>10.7561245</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>9.7382899999999992</v>
       </c>
-      <c r="G127">
+      <c r="H127">
         <v>99.924930000000003</v>
       </c>
-      <c r="H127">
+      <c r="I127">
         <v>99.918364999999994</v>
       </c>
-      <c r="I127">
+      <c r="J127">
         <v>0.25875350000000003</v>
       </c>
-      <c r="J127">
+      <c r="K127">
         <v>19.167059999999999</v>
       </c>
-      <c r="K127" s="3">
+      <c r="L127" s="3">
         <v>27.7</v>
       </c>
-      <c r="L127" s="8" t="s">
+      <c r="M127" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>128</v>
       </c>
@@ -6141,35 +6525,38 @@
       <c r="C128" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="3">
+        <v>77.482799999999997</v>
+      </c>
+      <c r="E128">
         <v>13024.94</v>
       </c>
-      <c r="E128">
+      <c r="F128">
         <v>10.77</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>4.3627000000000002</v>
       </c>
-      <c r="G128">
+      <c r="H128">
         <v>91.441299999999998</v>
       </c>
-      <c r="H128">
+      <c r="I128">
         <v>95.349189999999993</v>
       </c>
-      <c r="I128">
+      <c r="J128">
         <v>0.53471599999999997</v>
       </c>
-      <c r="J128">
+      <c r="K128">
         <v>10.60543</v>
       </c>
-      <c r="K128" s="3">
+      <c r="L128" s="3">
         <v>22</v>
       </c>
-      <c r="L128" s="8" t="s">
+      <c r="M128" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>129</v>
       </c>
@@ -6179,35 +6566,38 @@
       <c r="C129" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="3">
+        <v>83.2624</v>
+      </c>
+      <c r="E129">
         <v>62845.483999999997</v>
       </c>
-      <c r="E129">
+      <c r="F129">
         <v>12.740326</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>10.498570000000001</v>
       </c>
-      <c r="G129">
+      <c r="H129">
         <v>99.760239999999996</v>
       </c>
-      <c r="H129">
+      <c r="I129">
         <v>98.743679999999998</v>
       </c>
-      <c r="I129">
+      <c r="J129">
         <v>0.20161277</v>
       </c>
-      <c r="J129">
+      <c r="K129">
         <v>16.410299999999999</v>
       </c>
-      <c r="K129" s="3">
+      <c r="L129" s="3">
         <v>24</v>
       </c>
-      <c r="L129" s="8" t="s">
+      <c r="M129" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>130</v>
       </c>
@@ -6217,35 +6607,38 @@
       <c r="C130" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="3">
+        <v>83.953599999999994</v>
+      </c>
+      <c r="E130">
         <v>82302.05</v>
       </c>
-      <c r="E130">
+      <c r="F130">
         <v>13.949121</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>11.706530000000001</v>
       </c>
-      <c r="G130">
+      <c r="H130">
         <v>100</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>99.899870000000007</v>
       </c>
-      <c r="I130">
+      <c r="J130">
         <v>0.34872866000000002</v>
       </c>
-      <c r="J130">
+      <c r="K130">
         <v>13.740159999999999</v>
       </c>
-      <c r="K130" s="3">
+      <c r="L130" s="3">
         <v>25.5</v>
       </c>
-      <c r="L130" s="8" t="s">
+      <c r="M130" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>131</v>
       </c>
@@ -6255,35 +6648,38 @@
       <c r="C131" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="3">
+        <v>66.9953</v>
+      </c>
+      <c r="E131">
         <v>3620.7935000000002</v>
       </c>
-      <c r="E131">
+      <c r="F131">
         <v>6.0653499999999996</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>3.1119599999999998</v>
       </c>
-      <c r="G131">
+      <c r="H131">
         <v>75.826329999999999</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>35.682499999999997</v>
       </c>
-      <c r="I131">
+      <c r="J131">
         <v>2.9932729999999999</v>
       </c>
-      <c r="J131">
+      <c r="K131">
         <v>11.39353</v>
       </c>
-      <c r="K131" s="3">
+      <c r="L131" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L131" s="8" t="s">
+      <c r="M131" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>132</v>
       </c>
@@ -6293,35 +6689,38 @@
       <c r="C132" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="3">
+        <v>76.411500000000004</v>
+      </c>
+      <c r="E132">
         <v>21191.453000000001</v>
       </c>
-      <c r="E132">
+      <c r="F132">
         <v>9.0399999999999991</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>5.3547099999999999</v>
       </c>
-      <c r="G132">
+      <c r="H132">
         <v>100</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>99.038535999999993</v>
       </c>
-      <c r="I132">
+      <c r="J132">
         <v>0.80478689999999997</v>
       </c>
-      <c r="J132">
+      <c r="K132">
         <v>14.50924</v>
       </c>
-      <c r="K132" s="3">
+      <c r="L132" s="3">
         <v>22.1</v>
       </c>
-      <c r="L132" s="8" t="s">
+      <c r="M132" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>133</v>
       </c>
@@ -6331,35 +6730,38 @@
       <c r="C133" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="3">
+        <v>62.738700000000001</v>
+      </c>
+      <c r="E133">
         <v>2767.5165999999999</v>
       </c>
-      <c r="E133">
+      <c r="F133">
         <v>5.8611145000000002</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>6.0413399999999999</v>
       </c>
-      <c r="G133">
+      <c r="H133">
         <v>80.984089999999995</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>25.029747</v>
       </c>
-      <c r="I133">
+      <c r="J133">
         <v>3.5851312000000002</v>
       </c>
-      <c r="J133">
+      <c r="K133">
         <v>10.449780000000001</v>
       </c>
-      <c r="K133" s="3">
+      <c r="L133" s="3">
         <v>6.8</v>
       </c>
-      <c r="L133" s="8" t="s">
+      <c r="M133" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>134</v>
       </c>
@@ -6369,35 +6771,38 @@
       <c r="C134" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="3">
+        <v>73.489599999999996</v>
+      </c>
+      <c r="E134">
         <v>31193.916000000001</v>
       </c>
-      <c r="E134">
+      <c r="F134">
         <v>10.79275</v>
       </c>
-      <c r="F134">
+      <c r="G134">
         <v>6.4310600000000004</v>
       </c>
-      <c r="G134">
+      <c r="H134">
         <v>99.501334999999997</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>94.190703999999997</v>
       </c>
-      <c r="I134">
+      <c r="J134">
         <v>1.7211430000000001</v>
       </c>
-      <c r="J134">
+      <c r="K134">
         <v>29.150950000000002</v>
       </c>
-      <c r="K134" s="3">
+      <c r="L134" s="3">
         <v>19</v>
       </c>
-      <c r="L134" s="8" t="s">
+      <c r="M134" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>135</v>
       </c>
@@ -6407,35 +6812,38 @@
       <c r="C135" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="3">
+        <v>76.5077</v>
+      </c>
+      <c r="E135">
         <v>12622.96</v>
       </c>
-      <c r="E135">
+      <c r="F135">
         <v>7.5949200000000001</v>
       </c>
-      <c r="F135">
+      <c r="G135">
         <v>6.9638</v>
       </c>
-      <c r="G135">
+      <c r="H135">
         <v>98.434105000000002</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>97.984920000000002</v>
       </c>
-      <c r="I135">
+      <c r="J135">
         <v>1.0555985000000001</v>
       </c>
-      <c r="J135">
+      <c r="K135">
         <v>28.263999999999999</v>
       </c>
-      <c r="K135" s="3">
+      <c r="L135" s="3">
         <v>24.6</v>
       </c>
-      <c r="L135" s="8" t="s">
+      <c r="M135" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>136</v>
       </c>
@@ -6445,35 +6853,38 @@
       <c r="C136" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="3">
+        <v>70.072699999999998</v>
+      </c>
+      <c r="E136">
         <v>17866.403999999999</v>
       </c>
-      <c r="E136">
+      <c r="F136">
         <v>11.207801999999999</v>
       </c>
-      <c r="F136">
+      <c r="G136">
         <v>5.3710399999999998</v>
       </c>
-      <c r="G136">
+      <c r="H136">
         <v>99.928154000000006</v>
       </c>
-      <c r="H136">
+      <c r="I136">
         <v>99.737319999999997</v>
       </c>
-      <c r="I136">
+      <c r="J136">
         <v>3.1227909999999999</v>
       </c>
-      <c r="J136">
+      <c r="K136">
         <v>20.158200000000001</v>
       </c>
-      <c r="K136" s="3">
+      <c r="L136" s="3">
         <v>5.5</v>
       </c>
-      <c r="L136" s="8" t="s">
+      <c r="M136" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>137</v>
       </c>
@@ -6483,35 +6894,38 @@
       <c r="C137" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="3">
+        <v>68.252300000000005</v>
+      </c>
+      <c r="E137">
         <v>2791.0556999999999</v>
       </c>
-      <c r="E137">
+      <c r="F137">
         <v>6.3236629999999998</v>
       </c>
-      <c r="F137">
+      <c r="G137">
         <v>4.3908899999999997</v>
       </c>
-      <c r="G137">
+      <c r="H137">
         <v>85.193179999999998</v>
       </c>
-      <c r="H137">
+      <c r="I137">
         <v>23.529322000000001</v>
       </c>
-      <c r="I137">
+      <c r="J137">
         <v>2.7563070999999999</v>
       </c>
-      <c r="J137">
+      <c r="K137">
         <v>6.8849400000000003</v>
       </c>
-      <c r="K137" s="3">
+      <c r="L137" s="3">
         <v>8.4</v>
       </c>
-      <c r="L137" s="8" t="s">
+      <c r="M137" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>138</v>
       </c>
@@ -6521,35 +6935,38 @@
       <c r="C138" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="3">
+        <v>73.422499999999999</v>
+      </c>
+      <c r="E138">
         <v>15916.958000000001</v>
       </c>
-      <c r="E138">
+      <c r="F138">
         <v>11.122738999999999</v>
       </c>
-      <c r="F138" s="10">
+      <c r="G138" s="10">
         <v>8.4984999999999999</v>
       </c>
-      <c r="G138">
+      <c r="H138">
         <v>99.203710000000001</v>
       </c>
-      <c r="H138">
+      <c r="I138">
         <v>97.644360000000006</v>
       </c>
-      <c r="I138">
+      <c r="J138">
         <v>0.77837920000000005</v>
       </c>
-      <c r="J138">
+      <c r="K138">
         <v>29.20289</v>
       </c>
-      <c r="K138" s="3">
+      <c r="L138" s="3">
         <v>25.8</v>
       </c>
-      <c r="L138" s="8" t="s">
+      <c r="M138" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>139</v>
       </c>
@@ -6559,35 +6976,38 @@
       <c r="C139" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="3">
+        <v>82.909099999999995</v>
+      </c>
+      <c r="E139">
         <v>68577.539999999994</v>
       </c>
-      <c r="E139">
+      <c r="F139">
         <v>12.99</v>
       </c>
-      <c r="F139">
+      <c r="G139">
         <v>4.6755100000000001</v>
       </c>
-      <c r="G139">
+      <c r="H139">
         <v>100</v>
       </c>
-      <c r="H139">
+      <c r="I139">
         <v>99.08905</v>
       </c>
-      <c r="I139">
+      <c r="J139">
         <v>0.39632215999999998</v>
       </c>
-      <c r="J139">
+      <c r="K139">
         <v>31.54617</v>
       </c>
-      <c r="K139" s="8">
+      <c r="L139" s="8">
         <v>9</v>
       </c>
-      <c r="L139" s="8" t="s">
+      <c r="M139" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>140</v>
       </c>
@@ -6597,35 +7017,38 @@
       <c r="C140" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="3">
+        <v>81.301500000000004</v>
+      </c>
+      <c r="E140">
         <v>52502.913999999997</v>
       </c>
-      <c r="E140">
+      <c r="F140">
         <v>13.49</v>
       </c>
-      <c r="F140">
+      <c r="G140">
         <v>11.050879999999999</v>
       </c>
-      <c r="G140">
+      <c r="H140">
         <v>100</v>
       </c>
-      <c r="H140">
+      <c r="I140">
         <v>99.103719999999996</v>
       </c>
-      <c r="I140">
+      <c r="J140">
         <v>0.39514723000000002</v>
       </c>
-      <c r="J140">
+      <c r="K140">
         <v>28.707080000000001</v>
       </c>
-      <c r="K140" s="3">
+      <c r="L140" s="3">
         <v>15.4</v>
       </c>
-      <c r="L140" s="8" t="s">
+      <c r="M140" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>141</v>
       </c>
@@ -6635,35 +7058,38 @@
       <c r="C141" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="3">
+        <v>79.304299999999998</v>
+      </c>
+      <c r="E141">
         <v>74158.720000000001</v>
       </c>
-      <c r="E141">
+      <c r="F141">
         <v>13.91</v>
       </c>
-      <c r="F141">
+      <c r="G141">
         <v>16.49614</v>
       </c>
-      <c r="G141">
+      <c r="H141">
         <v>99.980500000000006</v>
       </c>
-      <c r="H141">
+      <c r="I141">
         <v>99.615120000000005</v>
       </c>
-      <c r="I141">
+      <c r="J141">
         <v>0.54917382999999997</v>
       </c>
-      <c r="J141">
+      <c r="K141">
         <v>42.867870000000003</v>
       </c>
-      <c r="K141" s="3">
+      <c r="L141" s="3">
         <v>23</v>
       </c>
-      <c r="L141" s="8" t="s">
+      <c r="M141" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>142</v>
       </c>
@@ -6673,35 +7099,38 @@
       <c r="C142" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="3">
+        <v>78.138499999999993</v>
+      </c>
+      <c r="E142">
         <v>31059.254000000001</v>
       </c>
-      <c r="E142">
+      <c r="F142">
         <v>10.54</v>
       </c>
-      <c r="F142">
+      <c r="G142">
         <v>8.9453200000000006</v>
       </c>
-      <c r="G142">
+      <c r="H142">
         <v>100</v>
       </c>
-      <c r="H142">
+      <c r="I142">
         <v>98.893389999999997</v>
       </c>
-      <c r="I142">
+      <c r="J142">
         <v>0.55142933000000005</v>
       </c>
-      <c r="J142">
+      <c r="K142">
         <v>34.667520000000003</v>
       </c>
-      <c r="K142" s="3">
+      <c r="L142" s="3">
         <v>21.5</v>
       </c>
-      <c r="L142" s="8" t="s">
+      <c r="M142" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>143</v>
       </c>
@@ -6711,35 +7140,38 @@
       <c r="C143" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="3">
+        <v>72.388400000000004</v>
+      </c>
+      <c r="E143">
         <v>10007.686</v>
       </c>
-      <c r="E143">
+      <c r="F143">
         <v>11.91</v>
       </c>
-      <c r="F143">
+      <c r="G143">
         <v>7.3632499999999999</v>
       </c>
-      <c r="G143">
+      <c r="H143">
         <v>98.578620000000001</v>
       </c>
-      <c r="H143">
+      <c r="I143">
         <v>96.427825999999996</v>
       </c>
-      <c r="I143">
+      <c r="J143">
         <v>1.2668619999999999</v>
       </c>
-      <c r="J143">
+      <c r="K143">
         <v>28.516159999999999</v>
       </c>
-      <c r="K143" s="3">
+      <c r="L143" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="L143" s="8" t="s">
+      <c r="M143" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>144</v>
       </c>
@@ -6749,35 +7181,38 @@
       <c r="C144" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="3">
+        <v>71.476900000000001</v>
+      </c>
+      <c r="E144">
         <v>3118.3960000000002</v>
       </c>
-      <c r="E144">
+      <c r="F144">
         <v>7.1832099999999999</v>
       </c>
-      <c r="F144">
+      <c r="G144">
         <v>4.1474299999999999</v>
       </c>
-      <c r="G144">
+      <c r="H144">
         <v>90.021900000000002</v>
       </c>
-      <c r="H144">
+      <c r="I144">
         <v>48.197356999999997</v>
       </c>
-      <c r="I144">
+      <c r="J144">
         <v>1.4168050999999999</v>
       </c>
-      <c r="J144">
+      <c r="K144">
         <v>19.947569999999999</v>
       </c>
-      <c r="K144" s="3">
+      <c r="L144" s="3">
         <v>17.8</v>
       </c>
-      <c r="L144" s="8" t="s">
+      <c r="M144" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>145</v>
       </c>
@@ -6787,35 +7222,38 @@
       <c r="C145" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="3">
+        <v>74.588300000000004</v>
+      </c>
+      <c r="E145">
         <v>13545.934999999999</v>
       </c>
-      <c r="E145">
+      <c r="F145">
         <v>8.98</v>
       </c>
-      <c r="F145">
+      <c r="G145">
         <v>4.5889199999999999</v>
       </c>
-      <c r="G145">
+      <c r="H145">
         <v>98.160659999999993</v>
       </c>
-      <c r="H145">
+      <c r="I145">
         <v>94.089870000000005</v>
       </c>
-      <c r="I145">
+      <c r="J145">
         <v>1.4011640000000001</v>
       </c>
-      <c r="J145">
+      <c r="K145">
         <v>2.0817000000000001</v>
       </c>
-      <c r="K145" s="3">
+      <c r="L145" s="3">
         <v>24.8</v>
       </c>
-      <c r="L145" s="8" t="s">
+      <c r="M145" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>146</v>
       </c>
@@ -6825,35 +7263,38 @@
       <c r="C146" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="3">
+        <v>69.295199999999994</v>
+      </c>
+      <c r="E146">
         <v>1967.0124000000001</v>
       </c>
-      <c r="E146">
+      <c r="F146">
         <v>5.4841499999999996</v>
       </c>
-      <c r="F146">
+      <c r="G146">
         <v>6.1866700000000003</v>
       </c>
-      <c r="G146">
+      <c r="H146">
         <v>89.667496</v>
       </c>
-      <c r="H146">
+      <c r="I146">
         <v>62.285975999999998</v>
       </c>
-      <c r="I146">
+      <c r="J146">
         <v>3.4650888000000002</v>
       </c>
-      <c r="J146">
+      <c r="K146">
         <v>11.555339999999999</v>
       </c>
-      <c r="K146" s="3">
+      <c r="L146" s="3">
         <v>20.3</v>
       </c>
-      <c r="L146" s="8" t="s">
+      <c r="M146" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>147</v>
       </c>
@@ -6863,35 +7304,38 @@
       <c r="C147" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="3">
+        <v>66.348699999999994</v>
+      </c>
+      <c r="E147">
         <v>3673.4841000000001</v>
       </c>
-      <c r="E147">
+      <c r="F147">
         <v>7.3974085000000001</v>
       </c>
-      <c r="F147">
+      <c r="G147">
         <v>5.2559199999999997</v>
       </c>
-      <c r="G147">
+      <c r="H147">
         <v>79.314449999999994</v>
       </c>
-      <c r="H147">
+      <c r="I147">
         <v>36.739131999999998</v>
       </c>
-      <c r="I147">
+      <c r="J147">
         <v>3.0859264999999998</v>
       </c>
-      <c r="J147">
+      <c r="K147">
         <v>9.4169</v>
       </c>
-      <c r="K147" s="3">
+      <c r="L147" s="3">
         <v>14.4</v>
       </c>
-      <c r="L147" s="8" t="s">
+      <c r="M147" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>148</v>
       </c>
@@ -6901,50 +7345,53 @@
       <c r="C148" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="3">
+        <v>62.774799999999999</v>
+      </c>
+      <c r="E148">
         <v>3442.2487999999998</v>
       </c>
-      <c r="E148">
+      <c r="F148">
         <v>8.930847</v>
       </c>
-      <c r="F148">
+      <c r="G148">
         <v>3.6288100000000001</v>
       </c>
-      <c r="G148">
+      <c r="H148">
         <v>81.218919999999997</v>
       </c>
-      <c r="H148">
+      <c r="I148">
         <v>34.628345000000003</v>
       </c>
-      <c r="I148">
+      <c r="J148">
         <v>4.0572809999999997</v>
       </c>
-      <c r="J148">
+      <c r="K148">
         <v>12.427</v>
       </c>
-      <c r="K148" s="3">
+      <c r="L148" s="3">
         <v>11.7</v>
       </c>
-      <c r="L148" s="8" t="s">
+      <c r="M148" s="8" t="s">
         <v>177</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(G7))=0</formula>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="containsBlanks" dxfId="3" priority="3">
+      <formula>LEN(TRIM(H7))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G12">
-    <cfRule type="containsBlanks" dxfId="2" priority="1">
-      <formula>LEN(TRIM(G12))=0</formula>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
+      <formula>LEN(TRIM(H12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:L138 A2:F148 H139:I139 L139 H140:L148">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Not found">
+  <conditionalFormatting sqref="I2:M138 A2:G148 I139:J139 M139 I140:M148">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Not found">
       <formula>NOT(ISERROR(SEARCH("Not found",A2)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="4">
+    <cfRule type="containsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(A2))=0</formula>
     </cfRule>
   </conditionalFormatting>
